--- a/data/trans_camb/P36B08_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P36B08_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 8,85</t>
+          <t>-14,3; 7,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,35; 2,31</t>
+          <t>-20,42; 2,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,03; 21,43</t>
+          <t>0,05; 21,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 15,64</t>
+          <t>-2,57; 16,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,28; 1,24</t>
+          <t>-21,86; 1,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,72; 22,53</t>
+          <t>7,97; 22,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 9,92</t>
+          <t>-6,0; 8,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-17,1; -0,95</t>
+          <t>-17,58; -2,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,04; 19,19</t>
+          <t>6,48; 18,63</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,67; 12,12</t>
+          <t>-17,0; 10,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-25,34; 3,28</t>
+          <t>-24,98; 3,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 30,38</t>
+          <t>-0,07; 30,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 20,77</t>
+          <t>-2,61; 21,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,99; 1,53</t>
+          <t>-25,28; 1,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,07; 30,88</t>
+          <t>9,51; 30,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 12,93</t>
+          <t>-7,31; 11,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,95; -1,32</t>
+          <t>-21,39; -2,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,63; 25,79</t>
+          <t>7,83; 25,02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 9,52</t>
+          <t>-1,0; 9,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 9,08</t>
+          <t>-1,5; 8,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,91; 28,98</t>
+          <t>20,67; 29,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 9,11</t>
+          <t>-0,03; 9,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 4,41</t>
+          <t>-5,6; 4,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,35; 22,91</t>
+          <t>15,22; 22,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 7,95</t>
+          <t>1,13; 8,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 5,19</t>
+          <t>-2,27; 5,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,07; 24,91</t>
+          <t>19,26; 24,69</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 13,86</t>
+          <t>-1,36; 13,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 13,28</t>
+          <t>-2,01; 12,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28,27; 42,86</t>
+          <t>27,68; 43,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 12,12</t>
+          <t>-0,01; 12,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 5,87</t>
+          <t>-7,0; 5,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,35; 31,41</t>
+          <t>18,9; 30,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 10,97</t>
+          <t>1,52; 11,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 7,24</t>
+          <t>-2,98; 7,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,96; 34,74</t>
+          <t>25,14; 34,4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,37; 12,95</t>
+          <t>4,03; 12,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,43; 13,68</t>
+          <t>5,65; 14,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>29,82; 37,26</t>
+          <t>30,07; 37,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,46; 12,74</t>
+          <t>4,49; 12,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,9; 11,81</t>
+          <t>3,81; 11,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,3; 31,42</t>
+          <t>25,14; 31,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,38; 11,5</t>
+          <t>5,55; 11,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,91; 11,68</t>
+          <t>6,16; 11,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>28,71; 33,47</t>
+          <t>28,47; 33,28</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,77; 21,79</t>
+          <t>6,23; 21,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,35; 22,67</t>
+          <t>8,75; 23,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>45,81; 63,11</t>
+          <t>46,52; 63,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,21; 19,12</t>
+          <t>6,5; 19,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,51; 17,73</t>
+          <t>5,33; 18,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>35,21; 47,47</t>
+          <t>35,03; 48,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,87; 17,91</t>
+          <t>8,22; 17,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,73; 18,23</t>
+          <t>9,25; 18,82</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>42,68; 52,89</t>
+          <t>42,19; 52,57</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,82; 13,03</t>
+          <t>2,45; 13,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,7; 14,32</t>
+          <t>3,55; 14,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>30,21; 39,32</t>
+          <t>30,45; 39,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 8,6</t>
+          <t>-0,63; 9,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 7,46</t>
+          <t>-2,46; 7,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,74; 27,81</t>
+          <t>19,85; 27,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,7; 9,5</t>
+          <t>2,93; 10,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,25; 9,01</t>
+          <t>2,25; 9,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>26,3; 32,27</t>
+          <t>26,41; 32,36</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,66; 23,42</t>
+          <t>4,11; 24,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,99; 25,98</t>
+          <t>6,09; 26,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>48,91; 71,92</t>
+          <t>49,99; 71,89</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 12,74</t>
+          <t>-0,84; 13,34</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 10,82</t>
+          <t>-3,18; 10,84</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>26,86; 41,38</t>
+          <t>27,1; 41,32</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,11; 15,22</t>
+          <t>4,38; 15,97</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,4; 14,49</t>
+          <t>3,4; 14,72</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>39,5; 52,02</t>
+          <t>39,77; 52,27</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,17; 15,17</t>
+          <t>6,65; 15,11</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>10,35; 18,5</t>
+          <t>10,33; 18,93</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>28,59; 35,95</t>
+          <t>28,46; 35,67</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>10,62; 18,37</t>
+          <t>10,42; 18,41</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>9,55; 17,2</t>
+          <t>9,67; 17,36</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>23,25; 29,63</t>
+          <t>23,34; 29,46</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>10,07; 15,56</t>
+          <t>10,04; 15,64</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>11,14; 16,98</t>
+          <t>11,08; 16,97</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>26,84; 31,45</t>
+          <t>27,07; 31,79</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>11,34; 25,73</t>
+          <t>10,5; 25,45</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>16,3; 31,83</t>
+          <t>16,29; 32,14</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>44,78; 62,19</t>
+          <t>44,69; 61,17</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>15,07; 27,73</t>
+          <t>14,72; 27,78</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>13,35; 25,83</t>
+          <t>13,53; 26,05</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>32,4; 44,98</t>
+          <t>32,63; 44,43</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>14,91; 24,22</t>
+          <t>14,99; 24,58</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>16,64; 26,78</t>
+          <t>16,68; 26,8</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>39,85; 49,57</t>
+          <t>40,25; 50,02</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>5,59; 10,2</t>
+          <t>5,63; 10,26</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>6,55; 11,3</t>
+          <t>6,86; 11,61</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>29,06; 32,9</t>
+          <t>29,22; 33,04</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>6,52; 10,67</t>
+          <t>6,24; 10,58</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,34; 8,31</t>
+          <t>4,21; 8,45</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>22,81; 26,26</t>
+          <t>22,95; 26,45</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,74; 9,8</t>
+          <t>6,66; 9,65</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>6,17; 9,29</t>
+          <t>6,16; 9,24</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>26,57; 29,11</t>
+          <t>26,62; 29,07</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>8,68; 16,46</t>
+          <t>8,68; 16,54</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>10,19; 18,28</t>
+          <t>10,6; 18,86</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>44,79; 53,34</t>
+          <t>44,97; 53,34</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>9,1; 15,32</t>
+          <t>8,67; 15,18</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>6,04; 11,91</t>
+          <t>5,85; 12,09</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>31,42; 37,66</t>
+          <t>31,66; 38,02</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>9,9; 14,65</t>
+          <t>9,75; 14,56</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>9,06; 14,03</t>
+          <t>9,08; 13,94</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>38,85; 43,92</t>
+          <t>39,0; 43,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P36B08_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P36B08_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,3; 7,42</t>
+          <t>-13,77; 8,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,42; 2,55</t>
+          <t>-20,11; 2,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,05; 21,3</t>
+          <t>0,07; 19,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 16,22</t>
+          <t>-3,32; 15,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,86; 1,1</t>
+          <t>-19,92; 2,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,97; 22,59</t>
+          <t>7,51; 21,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 8,84</t>
+          <t>-5,68; 8,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-17,58; -2,05</t>
+          <t>-17,41; -1,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,48; 18,63</t>
+          <t>6,76; 19,3</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,0; 10,31</t>
+          <t>-16,49; 11,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-24,98; 3,27</t>
+          <t>-24,47; 3,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 30,35</t>
+          <t>0,3; 28,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 21,7</t>
+          <t>-3,97; 20,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-25,28; 1,35</t>
+          <t>-23,54; 2,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,51; 30,91</t>
+          <t>8,68; 29,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 11,52</t>
+          <t>-6,8; 11,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-21,39; -2,68</t>
+          <t>-20,85; -1,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,83; 25,02</t>
+          <t>8,07; 25,68</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 9,58</t>
+          <t>-0,62; 9,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 8,96</t>
+          <t>-1,68; 9,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,67; 29,45</t>
+          <t>21,05; 29,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 9,06</t>
+          <t>-0,72; 9,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 4,03</t>
+          <t>-5,93; 4,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,22; 22,78</t>
+          <t>15,21; 22,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 8,06</t>
+          <t>0,97; 8,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 5,25</t>
+          <t>-1,72; 5,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,26; 24,69</t>
+          <t>19,32; 24,87</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 13,98</t>
+          <t>-0,76; 14,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 12,83</t>
+          <t>-2,37; 13,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,68; 43,57</t>
+          <t>28,57; 43,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 12,21</t>
+          <t>-0,91; 12,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 5,4</t>
+          <t>-7,44; 5,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,9; 30,7</t>
+          <t>19,03; 30,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 11,17</t>
+          <t>1,29; 11,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 7,26</t>
+          <t>-2,26; 7,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,14; 34,4</t>
+          <t>25,24; 34,68</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,03; 12,86</t>
+          <t>4,39; 12,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,65; 14,02</t>
+          <t>5,6; 14,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,07; 37,18</t>
+          <t>29,81; 36,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,49; 12,65</t>
+          <t>4,82; 12,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,81; 11,87</t>
+          <t>4,14; 12,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,14; 31,74</t>
+          <t>25,34; 31,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,55; 11,52</t>
+          <t>5,53; 11,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,16; 11,99</t>
+          <t>6,02; 11,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>28,47; 33,28</t>
+          <t>28,51; 33,55</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,23; 21,76</t>
+          <t>6,81; 21,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,75; 23,73</t>
+          <t>8,53; 23,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>46,52; 63,45</t>
+          <t>45,79; 62,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,5; 19,47</t>
+          <t>6,8; 19,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,33; 18,01</t>
+          <t>5,92; 18,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>35,03; 48,29</t>
+          <t>35,46; 49,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,22; 17,94</t>
+          <t>8,24; 18,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,25; 18,82</t>
+          <t>9,08; 18,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>42,19; 52,57</t>
+          <t>42,38; 52,82</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,45; 13,5</t>
+          <t>3,0; 13,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,55; 14,33</t>
+          <t>3,01; 13,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>30,45; 39,25</t>
+          <t>30,25; 39,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 9,03</t>
+          <t>-0,71; 8,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 7,27</t>
+          <t>-2,07; 7,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,85; 27,98</t>
+          <t>19,93; 28,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,93; 10,03</t>
+          <t>2,77; 9,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,25; 9,22</t>
+          <t>2,42; 9,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>26,41; 32,36</t>
+          <t>26,4; 32,36</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,11; 24,58</t>
+          <t>4,85; 24,21</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,09; 26,14</t>
+          <t>5,0; 25,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>49,99; 71,89</t>
+          <t>49,81; 71,89</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 13,34</t>
+          <t>-0,94; 12,89</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 10,84</t>
+          <t>-2,82; 10,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>27,1; 41,32</t>
+          <t>27,29; 41,74</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,38; 15,97</t>
+          <t>4,21; 15,06</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,4; 14,72</t>
+          <t>3,83; 14,78</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>39,77; 52,27</t>
+          <t>39,96; 52,47</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,65; 15,11</t>
+          <t>6,9; 15,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>10,33; 18,93</t>
+          <t>10,2; 18,59</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>28,46; 35,67</t>
+          <t>28,37; 35,66</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>10,42; 18,41</t>
+          <t>10,54; 18,06</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>9,67; 17,36</t>
+          <t>9,69; 17,07</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>23,34; 29,46</t>
+          <t>23,41; 29,57</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>10,04; 15,64</t>
+          <t>9,84; 15,59</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>11,08; 16,97</t>
+          <t>11,31; 16,73</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>27,07; 31,79</t>
+          <t>26,85; 31,43</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>10,5; 25,45</t>
+          <t>10,93; 25,88</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>16,29; 32,14</t>
+          <t>16,23; 31,95</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>44,69; 61,17</t>
+          <t>44,28; 60,76</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>14,72; 27,78</t>
+          <t>14,84; 27,19</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>13,53; 26,05</t>
+          <t>13,58; 25,72</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>32,63; 44,43</t>
+          <t>32,66; 44,51</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>14,99; 24,58</t>
+          <t>14,68; 24,38</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>16,68; 26,8</t>
+          <t>16,92; 26,32</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>40,25; 50,02</t>
+          <t>39,93; 49,45</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>5,63; 10,26</t>
+          <t>5,5; 10,13</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>6,86; 11,61</t>
+          <t>6,89; 11,68</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>29,22; 33,04</t>
+          <t>28,92; 32,94</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>6,24; 10,58</t>
+          <t>6,31; 10,38</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,21; 8,45</t>
+          <t>3,95; 8,23</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>22,95; 26,45</t>
+          <t>23,02; 26,33</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,66; 9,65</t>
+          <t>6,61; 9,82</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>6,16; 9,24</t>
+          <t>6,0; 9,19</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>26,62; 29,07</t>
+          <t>26,65; 29,16</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>8,68; 16,54</t>
+          <t>8,57; 16,44</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>10,6; 18,86</t>
+          <t>10,57; 18,67</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>44,97; 53,34</t>
+          <t>44,52; 53,31</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>8,67; 15,18</t>
+          <t>8,67; 14,8</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>5,85; 12,09</t>
+          <t>5,5; 11,85</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>31,66; 38,02</t>
+          <t>31,72; 37,78</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>9,75; 14,56</t>
+          <t>9,72; 14,82</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>9,08; 13,94</t>
+          <t>8,85; 13,94</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>39,0; 43,91</t>
+          <t>39,13; 44,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P36B08_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P36B08_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,19</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-9,07</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,86</t>
+          <t>22,53</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,55</t>
+          <t>4,78</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-9,24</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,61</t>
+          <t>18,06</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-9,15</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,73</t>
+          <t>20,32</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 8,34</t>
+          <t>-1,73; 7,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,11; 2,6</t>
+          <t>-3,44; 6,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,07; 19,95</t>
+          <t>18,59; 26,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 15,24</t>
+          <t>0,42; 9,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,92; 2,1</t>
+          <t>-6,74; 1,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,51; 21,88</t>
+          <t>14,75; 21,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 8,73</t>
+          <t>0,92; 7,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-17,41; -1,52</t>
+          <t>-3,39; 3,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,76; 19,3</t>
+          <t>17,73; 22,97</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,06%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-11,57%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>31,13%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-11,4%</t>
+          <t>-2,81%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,02%</t>
+          <t>23,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-11,48%</t>
+          <t>-0,31%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,96%</t>
+          <t>27,05%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,49; 11,29</t>
+          <t>-2,26; 10,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-24,47; 3,42</t>
+          <t>-4,65; 9,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 28,01</t>
+          <t>24,85; 38,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 20,44</t>
+          <t>0,53; 11,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,54; 2,68</t>
+          <t>-8,46; 2,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,68; 29,16</t>
+          <t>18,34; 28,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 11,51</t>
+          <t>1,13; 9,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,85; -1,99</t>
+          <t>-4,41; 4,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,07; 25,68</t>
+          <t>23,22; 31,62</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,52</t>
+          <t>8,54</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,89</t>
+          <t>9,72</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>25,13</t>
+          <t>33,93</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>8,55</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>7,94</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,81</t>
+          <t>28,32</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>8,56</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>8,85</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>21,97</t>
+          <t>31,06</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 9,74</t>
+          <t>4,39; 12,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 9,5</t>
+          <t>5,6; 14,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,05; 29,34</t>
+          <t>30,28; 37,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 9,06</t>
+          <t>4,82; 12,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 4,28</t>
+          <t>4,14; 12,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,21; 22,49</t>
+          <t>25,33; 31,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 8,26</t>
+          <t>5,53; 11,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 5,3</t>
+          <t>6,02; 11,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,32; 24,87</t>
+          <t>28,7; 33,95</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>35,31%</t>
+          <t>54,59%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>12,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,0%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,36%</t>
+          <t>41,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>13,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>29,62%</t>
+          <t>47,45%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 14,24</t>
+          <t>6,81; 21,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 13,8</t>
+          <t>8,53; 23,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28,57; 43,72</t>
+          <t>46,66; 63,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 12,22</t>
+          <t>6,8; 19,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 5,82</t>
+          <t>5,92; 18,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,03; 30,35</t>
+          <t>35,34; 48,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,29; 11,38</t>
+          <t>8,24; 18,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 7,42</t>
+          <t>9,08; 18,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,24; 34,68</t>
+          <t>42,44; 53,39</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,54</t>
+          <t>8,15</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,72</t>
+          <t>8,82</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>33,45</t>
+          <t>34,67</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,55</t>
+          <t>4,02</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,94</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>28,39</t>
+          <t>24,38</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>8,56</t>
+          <t>6,12</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>8,85</t>
+          <t>5,68</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>30,92</t>
+          <t>29,66</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,39; 12,91</t>
+          <t>3,0; 13,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,6; 14,02</t>
+          <t>3,01; 13,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>29,81; 36,9</t>
+          <t>30,03; 39,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,82; 12,71</t>
+          <t>-0,71; 8,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,14; 12,12</t>
+          <t>-2,07; 7,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,34; 31,98</t>
+          <t>20,38; 29,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,53; 11,62</t>
+          <t>2,77; 9,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,02; 11,62</t>
+          <t>2,42; 9,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>28,51; 33,55</t>
+          <t>26,55; 32,88</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>13,74%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>15,22%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>53,81%</t>
+          <t>59,85%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>41,29%</t>
+          <t>34,55%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>13,08%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>47,22%</t>
+          <t>46,16%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,81; 21,66</t>
+          <t>4,85; 24,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,53; 23,31</t>
+          <t>5,0; 25,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>45,79; 62,38</t>
+          <t>49,51; 71,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,8; 19,34</t>
+          <t>-0,94; 12,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,92; 18,42</t>
+          <t>-2,82; 10,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>35,46; 49,0</t>
+          <t>27,8; 43,1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,24; 18,17</t>
+          <t>4,21; 15,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,08; 18,16</t>
+          <t>3,83; 14,78</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>42,38; 52,82</t>
+          <t>40,22; 53,14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,15</t>
+          <t>11,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,82</t>
+          <t>14,53</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>34,84</t>
+          <t>31,97</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>14,28</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>13,4</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>23,8</t>
+          <t>26,58</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,12</t>
+          <t>12,72</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,68</t>
+          <t>13,94</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>29,37</t>
+          <t>29,18</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,0; 13,33</t>
+          <t>6,9; 15,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,01; 13,64</t>
+          <t>10,2; 18,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>30,25; 39,33</t>
+          <t>28,19; 35,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 8,72</t>
+          <t>10,54; 18,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 7,0</t>
+          <t>9,69; 17,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,93; 28,07</t>
+          <t>23,73; 29,79</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,77; 9,37</t>
+          <t>9,84; 15,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,42; 9,14</t>
+          <t>11,31; 16,73</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>26,4; 32,36</t>
+          <t>26,86; 31,5</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>17,92%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>15,22%</t>
+          <t>23,67%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>60,14%</t>
+          <t>52,09%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>20,65%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>19,38%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>33,74%</t>
+          <t>38,45%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>19,43%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>21,31%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>45,7%</t>
+          <t>44,59%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,85; 24,21</t>
+          <t>10,93; 25,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,0; 25,08</t>
+          <t>16,23; 31,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>49,81; 71,89</t>
+          <t>44,13; 60,62</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 12,89</t>
+          <t>14,84; 27,19</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 10,25</t>
+          <t>13,58; 25,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>27,29; 41,74</t>
+          <t>33,08; 44,87</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,21; 15,06</t>
+          <t>14,68; 24,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,83; 14,78</t>
+          <t>16,92; 26,32</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>39,96; 52,47</t>
+          <t>40,03; 49,53</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>11,0</t>
+          <t>7,93</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>14,53</t>
+          <t>9,07</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>32,09</t>
+          <t>31,2</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>14,28</t>
+          <t>8,46</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>13,4</t>
+          <t>6,32</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>26,38</t>
+          <t>24,82</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>12,72</t>
+          <t>8,21</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>13,94</t>
+          <t>7,69</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>29,13</t>
+          <t>27,97</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,9; 15,34</t>
+          <t>5,5; 10,13</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>10,2; 18,59</t>
+          <t>6,89; 11,68</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>28,37; 35,66</t>
+          <t>29,06; 33,31</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>10,54; 18,06</t>
+          <t>6,31; 10,38</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>9,69; 17,07</t>
+          <t>3,95; 8,23</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>23,41; 29,57</t>
+          <t>23,11; 26,53</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>9,84; 15,59</t>
+          <t>6,61; 9,82</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>11,31; 16,73</t>
+          <t>6,0; 9,19</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>26,85; 31,43</t>
+          <t>26,75; 29,34</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>17,92%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>23,67%</t>
+          <t>14,35%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>52,28%</t>
+          <t>49,35%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>20,65%</t>
+          <t>11,91%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>38,16%</t>
+          <t>34,91%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>12,22%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>21,31%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>44,52%</t>
+          <t>41,61%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>10,93; 25,88</t>
+          <t>8,57; 16,44</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>16,23; 31,95</t>
+          <t>10,57; 18,67</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>44,28; 60,76</t>
+          <t>44,58; 53,67</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>14,84; 27,19</t>
+          <t>8,67; 14,8</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>13,58; 25,72</t>
+          <t>5,5; 11,85</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>32,66; 44,51</t>
+          <t>31,88; 37,99</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>14,68; 24,38</t>
+          <t>9,72; 14,82</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>16,92; 26,32</t>
+          <t>8,85; 13,94</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>39,93; 49,45</t>
+          <t>39,27; 44,31</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>7,93</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>9,07</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>31,06</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>8,46</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>6,32</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>24,7</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>8,21</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>7,69</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>27,86</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>5,5; 10,13</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>6,89; 11,68</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>28,92; 32,94</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>6,31; 10,38</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>3,95; 8,23</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>23,02; 26,33</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>6,61; 9,82</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>6,0; 9,19</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>26,65; 29,16</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>12,54%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>14,35%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>49,12%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>11,91%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>8,89%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>34,74%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>12,22%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>11,44%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>41,45%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>8,57; 16,44</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>10,57; 18,67</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>44,52; 53,31</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>8,67; 14,8</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>5,5; 11,85</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>31,72; 37,78</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>9,72; 14,82</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>8,85; 13,94</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>39,13; 44,07</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P36B08_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P36B08_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 7,54</t>
+          <t>-1,62; 7,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 6,76</t>
+          <t>-3,01; 6,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,59; 26,49</t>
+          <t>18,55; 26,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 9,07</t>
+          <t>0,37; 8,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 1,85</t>
+          <t>-6,47; 2,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,75; 21,25</t>
+          <t>14,76; 21,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,92; 7,19</t>
+          <t>0,93; 7,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 3,01</t>
+          <t>-3,4; 3,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,73; 22,97</t>
+          <t>17,59; 22,84</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 10,87</t>
+          <t>-2,19; 10,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 9,69</t>
+          <t>-3,98; 9,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,85; 38,59</t>
+          <t>24,64; 37,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 11,92</t>
+          <t>0,45; 11,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 2,37</t>
+          <t>-8,18; 3,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,34; 28,59</t>
+          <t>18,35; 28,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,13; 9,81</t>
+          <t>1,2; 9,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 4,09</t>
+          <t>-4,41; 4,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>23,22; 31,62</t>
+          <t>22,94; 31,35</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,39; 12,91</t>
+          <t>3,73; 12,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,6; 14,02</t>
+          <t>5,47; 13,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,28; 37,61</t>
+          <t>30,48; 38,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,82; 12,71</t>
+          <t>4,76; 12,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,14; 12,12</t>
+          <t>3,46; 11,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,33; 31,91</t>
+          <t>25,17; 31,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,53; 11,62</t>
+          <t>5,66; 11,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,02; 11,62</t>
+          <t>5,75; 11,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>28,7; 33,95</t>
+          <t>28,76; 33,57</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,81; 21,66</t>
+          <t>5,84; 20,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,53; 23,31</t>
+          <t>8,61; 23,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>46,66; 63,51</t>
+          <t>46,95; 64,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,8; 19,34</t>
+          <t>6,52; 18,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,92; 18,42</t>
+          <t>4,79; 17,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,34; 48,89</t>
+          <t>34,99; 48,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,24; 18,17</t>
+          <t>8,35; 18,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,08; 18,16</t>
+          <t>8,61; 18,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>42,44; 53,39</t>
+          <t>42,73; 53,14</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,0; 13,33</t>
+          <t>2,73; 13,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,01; 13,64</t>
+          <t>3,39; 14,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,03; 39,28</t>
+          <t>29,96; 39,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 8,72</t>
+          <t>-0,68; 9,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 7,0</t>
+          <t>-2,4; 7,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,38; 29,06</t>
+          <t>20,19; 28,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,77; 9,37</t>
+          <t>2,34; 9,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,42; 9,14</t>
+          <t>2,35; 9,36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>26,55; 32,88</t>
+          <t>26,52; 33,04</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,85; 24,21</t>
+          <t>4,48; 24,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,0; 25,08</t>
+          <t>5,55; 25,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>49,51; 71,68</t>
+          <t>48,87; 72,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 12,89</t>
+          <t>-0,98; 13,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 10,25</t>
+          <t>-3,22; 10,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>27,8; 43,1</t>
+          <t>27,3; 42,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,21; 15,06</t>
+          <t>3,61; 15,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,83; 14,78</t>
+          <t>3,56; 15,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>40,22; 53,14</t>
+          <t>40,12; 53,52</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,9; 15,34</t>
+          <t>6,87; 15,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,2; 18,59</t>
+          <t>10,25; 18,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>28,19; 35,57</t>
+          <t>28,18; 35,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,54; 18,06</t>
+          <t>10,89; 17,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,69; 17,07</t>
+          <t>9,56; 17,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,73; 29,79</t>
+          <t>23,15; 29,73</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,84; 15,59</t>
+          <t>9,92; 15,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,31; 16,73</t>
+          <t>11,25; 16,73</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>26,86; 31,5</t>
+          <t>26,82; 31,47</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>10,93; 25,88</t>
+          <t>10,81; 26,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,23; 31,95</t>
+          <t>16,15; 32,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>44,13; 60,62</t>
+          <t>43,91; 60,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14,84; 27,19</t>
+          <t>15,3; 26,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,58; 25,72</t>
+          <t>13,4; 26,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>33,08; 44,87</t>
+          <t>32,4; 44,96</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>14,68; 24,38</t>
+          <t>14,88; 24,45</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>16,92; 26,32</t>
+          <t>16,75; 26,18</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>40,03; 49,53</t>
+          <t>39,92; 49,76</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,5; 10,13</t>
+          <t>5,51; 10,39</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,89; 11,68</t>
+          <t>6,75; 11,46</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>29,06; 33,31</t>
+          <t>29,27; 33,47</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,31; 10,38</t>
+          <t>6,28; 10,47</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,95; 8,23</t>
+          <t>4,14; 8,62</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>23,11; 26,53</t>
+          <t>23,16; 26,54</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,61; 9,82</t>
+          <t>6,54; 9,71</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,0; 9,19</t>
+          <t>6,09; 9,27</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>26,75; 29,34</t>
+          <t>26,63; 29,34</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>8,57; 16,44</t>
+          <t>8,47; 16,64</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>10,57; 18,67</t>
+          <t>10,48; 18,57</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>44,58; 53,67</t>
+          <t>45,06; 54,21</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>8,67; 14,8</t>
+          <t>8,63; 14,91</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>5,5; 11,85</t>
+          <t>5,66; 12,32</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>31,88; 37,99</t>
+          <t>31,94; 38,08</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>9,72; 14,82</t>
+          <t>9,71; 14,76</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>8,85; 13,94</t>
+          <t>8,95; 14,0</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>39,27; 44,31</t>
+          <t>39,02; 44,35</t>
         </is>
       </c>
     </row>
